--- a/Exercise Files/02_02.xlsx
+++ b/Exercise Files/02_02.xlsx
@@ -1,42 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28810"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yapatel/Desktop/ExerciseFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/mdmuntaha_islam_iqvia_com/Documents/Documents/My Courses/Data-Analytics-for-Business-Professionals/Exercise Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_CF1372E86B4A2692AABFFAB5F732453D7E392F0A" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{15FF63E5-1C3D-478A-89EF-750D3951C2FE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14060"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise Answers" sheetId="5" r:id="rId1"/>
     <sheet name="Add Calculations" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>John Johnson</author>
+    <author>Islam, Md Muntaha EX1</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -133,6 +144,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="D42" authorId="1" shapeId="0" xr:uid="{566FA130-082F-4CD0-88D8-53222569F367}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+As, 68% of the data is in one standard deviation above and below the mean. So, what the upper and lower specifies is that 68% of the sales are betwewen 19.33 and 8.23
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -236,8 +272,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -256,6 +292,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -594,25 +643,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="4" max="4" width="31.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -620,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -628,7 +677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -642,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>101</v>
       </c>
@@ -656,7 +705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>102</v>
       </c>
@@ -670,7 +719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>103</v>
       </c>
@@ -681,7 +730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>104</v>
       </c>
@@ -692,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>105</v>
       </c>
@@ -703,7 +752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>106</v>
       </c>
@@ -714,7 +763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>107</v>
       </c>
@@ -725,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>108</v>
       </c>
@@ -736,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>109</v>
       </c>
@@ -750,7 +799,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>110</v>
       </c>
@@ -761,7 +810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>111</v>
       </c>
@@ -772,7 +821,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112</v>
       </c>
@@ -783,7 +832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -797,7 +846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>114</v>
       </c>
@@ -808,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>115</v>
       </c>
@@ -822,29 +871,45 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C42">
+        <f>AVERAGE(C7:C21)</f>
+        <v>13.783333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C43">
+        <f>_xlfn.STDEV.P(C7:C21)</f>
+        <v>5.5519265925342429</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="C44">
+        <f>C42+C43</f>
+        <v>19.335259925867575</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>30</v>
+      </c>
+      <c r="C45">
+        <f>C42-C43</f>
+        <v>8.2314067407990912</v>
       </c>
     </row>
   </sheetData>
@@ -854,16 +919,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -903,7 +968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -927,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="1">A3+1</f>
         <v>3</v>
@@ -951,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -975,7 +1040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -999,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -1023,7 +1088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -1047,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -1064,7 +1129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -1081,7 +1146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -1105,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -1114,7 +1179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -1123,7 +1188,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -1132,7 +1197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -1141,7 +1206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>15</v>
